--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2022405.925652128</v>
+        <v>-2025083.811050988</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>246.586641943348</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>91.4288366752132</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>149.3098164970121</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>69.4236609913555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>27.58940115912182</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.74011762663968</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>24.35182417523075</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.77785311779773</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>261.86282122694</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>27.537815864053</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.3639337179233</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>35.6082245239142</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>112.1532550631283</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>134.9529137347782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>180.4516856419257</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.6971857188523</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>53.11937003877912</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194018</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.24570521548653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>3.475606507923219</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.6889225686084</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541857</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652735</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.286642562605</v>
+        <v>1783.773463984343</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.286642562605</v>
+        <v>1414.810947043931</v>
       </c>
       <c r="D2" t="n">
-        <v>848.0209439558549</v>
+        <v>1056.545248437181</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576107</v>
+        <v>670.7569958389363</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>670.7569958389363</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2136.542119254457</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1783.773463984343</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.425974538417</v>
+        <v>1783.773463984343</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.286642562605</v>
+        <v>1783.773463984343</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>458.7060632252733</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.3716966602814</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>121.3716966602814</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>121.3716966602814</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W4" t="n">
-        <v>570.1538267018288</v>
+        <v>895.7157139915109</v>
       </c>
       <c r="X4" t="n">
-        <v>342.1642758038115</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y4" t="n">
-        <v>121.3716966602814</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1240.759433410664</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="C5" t="n">
-        <v>871.7969164702527</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D5" t="n">
-        <v>871.7969164702527</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>871.7969164702527</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>460.8110116806451</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735866</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X5" t="n">
-        <v>1627.359273474786</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.359273474786</v>
+        <v>1266.884073985742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.264883884485</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159566</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.8620968941286</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941286</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941286</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,7 +4747,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
         <v>1337.233965749941</v>
@@ -4759,16 +4759,16 @@
         <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070932</v>
+        <v>1072.726065520708</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090758</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1427566090758</v>
+        <v>623.9439354791607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>136.3249908129703</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1801.496187286511</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1801.496187286511</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1512.393320412154</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="W10" t="n">
-        <v>1243.389223573109</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X10" t="n">
-        <v>1015.399672675091</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y10" t="n">
-        <v>794.6070935315613</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2546.907945506608</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>3042.233551722367</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3639.61203934892</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>4267.210002903526</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>4267.210002903526</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.115483122731</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1329.69831308577</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.708762187754</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.9161830442239</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2598873597751</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424045</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>229.5592957321584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>297.8113689946122</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384035</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
         <v>533.581456494265</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954142</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954141</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038072</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311315</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942663</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7339,19 +7339,19 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.91627445172441</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883067102</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>236.3234217949217</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>220.421284181457</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.01030165521367</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>257.2600209451363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>198.1202542299153</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.1847295890499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>106.0713126946653</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>264.8258126177387</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.4047682534897</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.1398665102891</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>44.83521572366047</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1339721.16103367</v>
+        <v>1339721.161033671</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287322</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642837</v>
@@ -26320,40 +26320,40 @@
         <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="H2" t="n">
-        <v>80714.65996900058</v>
-      </c>
       <c r="I2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
+        <v>82104.17698642844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="K2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>82104.17698642834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551183</v>
+        <v>85055.02793551194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37450.91375005651</v>
+        <v>37450.91375005662</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.25639174424</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744266</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16718.11565483779</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16718.11565483781</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483777</v>
       </c>
-      <c r="K4" t="n">
-        <v>16718.11565483777</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483778</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="O4" t="n">
         <v>16718.11565483774</v>
       </c>
-      <c r="N4" t="n">
-        <v>16718.11565483777</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483778</v>
-      </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1180218.647442948</v>
+        <v>-1180648.206309537</v>
       </c>
       <c r="C6" t="n">
         <v>-146355.7324303995</v>
       </c>
       <c r="D6" t="n">
-        <v>-306371.1951783984</v>
+        <v>-306371.1951783982</v>
       </c>
       <c r="E6" t="n">
-        <v>-354547.5880540064</v>
+        <v>-354582.3259794418</v>
       </c>
       <c r="F6" t="n">
-        <v>-29135.12624665076</v>
+        <v>-29169.86417208647</v>
       </c>
       <c r="G6" t="n">
-        <v>-29135.12624665079</v>
+        <v>-29169.86417208648</v>
       </c>
       <c r="H6" t="n">
-        <v>-29135.12624665083</v>
+        <v>-29169.8641720865</v>
       </c>
       <c r="I6" t="n">
-        <v>-29135.12624665078</v>
+        <v>-29169.8641720865</v>
       </c>
       <c r="J6" t="n">
-        <v>-224810.9503259392</v>
+        <v>-224810.950325939</v>
       </c>
       <c r="K6" t="n">
-        <v>-37778.05452232478</v>
+        <v>-37778.05452232482</v>
       </c>
       <c r="L6" t="n">
-        <v>-86072.02453051555</v>
+        <v>-86072.02453051561</v>
       </c>
       <c r="M6" t="n">
-        <v>-122833.0824578366</v>
+        <v>-122833.0824578368</v>
       </c>
       <c r="N6" t="n">
-        <v>-37778.05452232482</v>
+        <v>-37778.05452232472</v>
       </c>
       <c r="O6" t="n">
-        <v>-57205.77251595657</v>
+        <v>-57205.7725159565</v>
       </c>
       <c r="P6" t="n">
-        <v>-37778.05452232473</v>
+        <v>-37778.05452232488</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203978</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203978</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203978</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>164.961060829606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>28.96713317606435</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>372.8075851463143</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>361.8861144808228</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.0541270641395</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>24.66017710965104</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>383.3839097894004</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.8770349994898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>154.1608008075277</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>174.3697432734627</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>145.7021085929657</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099994</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9244589488883</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>650.2626573149953</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7190218511039</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,28 +34208,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8708611242915</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952093</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254367</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317915</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35030,7 +35030,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627482994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899066</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.86448192629905</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.582746865555</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>508.128623392977</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>207.1227774066595</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,28 +37856,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
